--- a/predictions/Прогнозы_ETS_HA4.xlsx
+++ b/predictions/Прогнозы_ETS_HA4.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17904461.29016987</v>
+        <v>17570633.96326384</v>
       </c>
       <c r="C2" t="n">
-        <v>18101115.28738235</v>
+        <v>17319337.8099829</v>
       </c>
       <c r="D2" t="n">
-        <v>18330633.97706028</v>
+        <v>16864657.14286681</v>
       </c>
       <c r="E2" t="n">
-        <v>18064778.37863611</v>
+        <v>15124207.49014655</v>
       </c>
       <c r="F2" t="n">
-        <v>16790917.65416581</v>
+        <v>15132121.73774773</v>
       </c>
       <c r="G2" t="n">
-        <v>16987571.65137829</v>
+        <v>14880825.58446678</v>
       </c>
       <c r="H2" t="n">
-        <v>17217090.34105622</v>
+        <v>14426144.91735069</v>
       </c>
       <c r="I2" t="n">
-        <v>16951234.74263205</v>
+        <v>12685695.26463044</v>
       </c>
       <c r="J2" t="n">
-        <v>15677374.01816175</v>
+        <v>12693609.51223161</v>
       </c>
       <c r="K2" t="n">
-        <v>15874028.01537423</v>
+        <v>12442313.35895067</v>
       </c>
       <c r="L2" t="n">
-        <v>16103546.70505217</v>
+        <v>11987632.69183457</v>
       </c>
       <c r="M2" t="n">
-        <v>15837691.10662799</v>
+        <v>10247183.03911432</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15578404.97133391</v>
+        <v>14092782.71567954</v>
       </c>
       <c r="C3" t="n">
-        <v>16479082.86560766</v>
+        <v>14584776.39061708</v>
       </c>
       <c r="D3" t="n">
-        <v>17381451.21449495</v>
+        <v>15074590.3493023</v>
       </c>
       <c r="E3" t="n">
-        <v>18281727.79337651</v>
+        <v>15565229.22603779</v>
       </c>
       <c r="F3" t="n">
-        <v>19183441.62113908</v>
+        <v>16056156.30217793</v>
       </c>
       <c r="G3" t="n">
-        <v>20084119.51541283</v>
+        <v>16548149.97711547</v>
       </c>
       <c r="H3" t="n">
-        <v>20986487.86430012</v>
+        <v>17037963.93580069</v>
       </c>
       <c r="I3" t="n">
-        <v>21886764.44318168</v>
+        <v>17528602.81253617</v>
       </c>
       <c r="J3" t="n">
-        <v>22788478.27094425</v>
+        <v>18019529.88867632</v>
       </c>
       <c r="K3" t="n">
-        <v>23689156.165218</v>
+        <v>18511523.56361385</v>
       </c>
       <c r="L3" t="n">
-        <v>24591524.5141053</v>
+        <v>19001337.52229907</v>
       </c>
       <c r="M3" t="n">
-        <v>25491801.09298686</v>
+        <v>19491976.39903455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27025071.75394353</v>
+        <v>62231550.41685567</v>
       </c>
       <c r="C4" t="n">
-        <v>30342781.79656857</v>
+        <v>70941085.34328742</v>
       </c>
       <c r="D4" t="n">
-        <v>33515987.83431326</v>
+        <v>80219957.95178267</v>
       </c>
       <c r="E4" t="n">
-        <v>36914717.13309442</v>
+        <v>89110573.71179169</v>
       </c>
       <c r="F4" t="n">
-        <v>40111058.92114213</v>
+        <v>98090855.55873021</v>
       </c>
       <c r="G4" t="n">
-        <v>43428768.96376716</v>
+        <v>106800390.485162</v>
       </c>
       <c r="H4" t="n">
-        <v>46601975.00151186</v>
+        <v>116079263.0936572</v>
       </c>
       <c r="I4" t="n">
-        <v>50000704.30029301</v>
+        <v>124969878.8536662</v>
       </c>
       <c r="J4" t="n">
-        <v>53197046.08834073</v>
+        <v>133950160.7006048</v>
       </c>
       <c r="K4" t="n">
-        <v>56514756.13096576</v>
+        <v>142659695.6270365</v>
       </c>
       <c r="L4" t="n">
-        <v>59687962.16871046</v>
+        <v>151938568.2355318</v>
       </c>
       <c r="M4" t="n">
-        <v>63086691.46749161</v>
+        <v>160829183.9955408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22512337.03122345</v>
+        <v>31150424.46532398</v>
       </c>
       <c r="C5" t="n">
-        <v>22250588.53557013</v>
+        <v>32625990.46010143</v>
       </c>
       <c r="D5" t="n">
-        <v>24146573.9878329</v>
+        <v>38005292.61034941</v>
       </c>
       <c r="E5" t="n">
-        <v>30091313.1824711</v>
+        <v>30578158.41867388</v>
       </c>
       <c r="F5" t="n">
-        <v>32929855.97451738</v>
+        <v>35967990.54485293</v>
       </c>
       <c r="G5" t="n">
-        <v>32668107.47886406</v>
+        <v>37443556.53963038</v>
       </c>
       <c r="H5" t="n">
-        <v>34564092.93112683</v>
+        <v>42822858.68987836</v>
       </c>
       <c r="I5" t="n">
-        <v>40508832.12576503</v>
+        <v>35395724.49820284</v>
       </c>
       <c r="J5" t="n">
-        <v>43347374.91781131</v>
+        <v>40785556.62438189</v>
       </c>
       <c r="K5" t="n">
-        <v>43085626.42215799</v>
+        <v>42261122.61915934</v>
       </c>
       <c r="L5" t="n">
-        <v>44981611.87442075</v>
+        <v>47640424.76940732</v>
       </c>
       <c r="M5" t="n">
-        <v>50926351.06905895</v>
+        <v>40213290.5777318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11940264.30492646</v>
+        <v>416824.1820303254</v>
       </c>
       <c r="C6" t="n">
-        <v>13728400.27237168</v>
+        <v>1208333.580555036</v>
       </c>
       <c r="D6" t="n">
-        <v>14034667.46781053</v>
+        <v>545530.7017349511</v>
       </c>
       <c r="E6" t="n">
-        <v>15487361.84316216</v>
+        <v>1447328.645599153</v>
       </c>
       <c r="F6" t="n">
-        <v>14110616.13231456</v>
+        <v>402261.5339050806</v>
       </c>
       <c r="G6" t="n">
-        <v>15898752.09975978</v>
+        <v>1193770.932429791</v>
       </c>
       <c r="H6" t="n">
-        <v>16205019.29519863</v>
+        <v>530968.0536097063</v>
       </c>
       <c r="I6" t="n">
-        <v>17657713.67055026</v>
+        <v>1432765.997473908</v>
       </c>
       <c r="J6" t="n">
-        <v>16280967.95970266</v>
+        <v>387698.8857798359</v>
       </c>
       <c r="K6" t="n">
-        <v>18069103.92714788</v>
+        <v>1179208.284304546</v>
       </c>
       <c r="L6" t="n">
-        <v>18375371.12258673</v>
+        <v>516405.4054844616</v>
       </c>
       <c r="M6" t="n">
-        <v>19828065.49793835</v>
+        <v>1418203.349348663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2490023.663277471</v>
+        <v>13541113.32916955</v>
       </c>
       <c r="C7" t="n">
-        <v>3360111.123176339</v>
+        <v>14036983.54669139</v>
       </c>
       <c r="D7" t="n">
-        <v>3234561.267385747</v>
+        <v>13681294.45548192</v>
       </c>
       <c r="E7" t="n">
-        <v>3739606.819968016</v>
+        <v>13572439.58967905</v>
       </c>
       <c r="F7" t="n">
-        <v>2700763.392125507</v>
+        <v>14602864.09597787</v>
       </c>
       <c r="G7" t="n">
-        <v>3570850.852024375</v>
+        <v>15098734.31349971</v>
       </c>
       <c r="H7" t="n">
-        <v>3445300.996233784</v>
+        <v>14743045.22229024</v>
       </c>
       <c r="I7" t="n">
-        <v>3950346.548816052</v>
+        <v>14634190.35648736</v>
       </c>
       <c r="J7" t="n">
-        <v>2911503.120973544</v>
+        <v>15664614.86278618</v>
       </c>
       <c r="K7" t="n">
-        <v>3781590.580872411</v>
+        <v>16160485.08030802</v>
       </c>
       <c r="L7" t="n">
-        <v>3656040.72508182</v>
+        <v>15804795.98909856</v>
       </c>
       <c r="M7" t="n">
-        <v>4161086.277664089</v>
+        <v>15695941.12329568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1635058.75598004</v>
+        <v>18723255.63566712</v>
       </c>
       <c r="C8" t="n">
-        <v>1904697.86086526</v>
+        <v>20590347.44472054</v>
       </c>
       <c r="D8" t="n">
-        <v>2184629.732515698</v>
+        <v>20984827.18253906</v>
       </c>
       <c r="E8" t="n">
-        <v>1916400.476513159</v>
+        <v>18201440.47692724</v>
       </c>
       <c r="F8" t="n">
-        <v>1800933.397401304</v>
+        <v>19340199.13156504</v>
       </c>
       <c r="G8" t="n">
-        <v>2070572.502286524</v>
+        <v>21207290.94061846</v>
       </c>
       <c r="H8" t="n">
-        <v>2350504.373936961</v>
+        <v>21601770.67843698</v>
       </c>
       <c r="I8" t="n">
-        <v>2082275.117934422</v>
+        <v>18818383.97282516</v>
       </c>
       <c r="J8" t="n">
-        <v>1966808.038822566</v>
+        <v>19957142.62746296</v>
       </c>
       <c r="K8" t="n">
-        <v>2236447.143707786</v>
+        <v>21824234.43651637</v>
       </c>
       <c r="L8" t="n">
-        <v>2516379.015358224</v>
+        <v>22218714.1743349</v>
       </c>
       <c r="M8" t="n">
-        <v>2248149.759355684</v>
+        <v>19435327.46872308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12154379.21395439</v>
+        <v>32226262.32102047</v>
       </c>
       <c r="C9" t="n">
-        <v>15198891.51932347</v>
+        <v>31068828.21250595</v>
       </c>
       <c r="D9" t="n">
-        <v>18243109.75486764</v>
+        <v>34454680.58057185</v>
       </c>
       <c r="E9" t="n">
-        <v>21287537.45643349</v>
+        <v>32227431.07007934</v>
       </c>
       <c r="F9" t="n">
-        <v>24331727.20265487</v>
+        <v>35075417.8120808</v>
       </c>
       <c r="G9" t="n">
-        <v>27376239.50802395</v>
+        <v>33917983.70356629</v>
       </c>
       <c r="H9" t="n">
-        <v>30420457.74356812</v>
+        <v>37303836.07163218</v>
       </c>
       <c r="I9" t="n">
-        <v>33464885.44513397</v>
+        <v>35076586.56113969</v>
       </c>
       <c r="J9" t="n">
-        <v>36509075.19135536</v>
+        <v>37924573.30314115</v>
       </c>
       <c r="K9" t="n">
-        <v>39553587.49672443</v>
+        <v>36767139.19462664</v>
       </c>
       <c r="L9" t="n">
-        <v>42597805.7322686</v>
+        <v>40152991.56269253</v>
       </c>
       <c r="M9" t="n">
-        <v>45642233.43383445</v>
+        <v>37925742.05220003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6676219.412348534</v>
+        <v>15147421.66198926</v>
       </c>
       <c r="C10" t="n">
-        <v>7100095.239381524</v>
+        <v>15153455.19024632</v>
       </c>
       <c r="D10" t="n">
-        <v>8466185.705072515</v>
+        <v>15156762.27629591</v>
       </c>
       <c r="E10" t="n">
-        <v>11409445.31471436</v>
+        <v>15159932.34978735</v>
       </c>
       <c r="F10" t="n">
-        <v>8796089.834381102</v>
+        <v>15165682.06440934</v>
       </c>
       <c r="G10" t="n">
-        <v>9219965.661414091</v>
+        <v>15171715.59266639</v>
       </c>
       <c r="H10" t="n">
-        <v>10586056.12710508</v>
+        <v>15175022.67871598</v>
       </c>
       <c r="I10" t="n">
-        <v>13529315.73674692</v>
+        <v>15178192.75220743</v>
       </c>
       <c r="J10" t="n">
-        <v>10915960.25641367</v>
+        <v>15183942.46682941</v>
       </c>
       <c r="K10" t="n">
-        <v>11339836.08344666</v>
+        <v>15189975.99508647</v>
       </c>
       <c r="L10" t="n">
-        <v>12705926.54913764</v>
+        <v>15193283.08113605</v>
       </c>
       <c r="M10" t="n">
-        <v>15649186.15877949</v>
+        <v>15196453.1546275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1377760.376321006</v>
+        <v>22271025.26969979</v>
       </c>
       <c r="C11" t="n">
-        <v>203184.916780507</v>
+        <v>21522562.91572867</v>
       </c>
       <c r="D11" t="n">
-        <v>869873.8709662938</v>
+        <v>22210778.57284811</v>
       </c>
       <c r="E11" t="n">
-        <v>347820.3402794101</v>
+        <v>20422985.29769463</v>
       </c>
       <c r="F11" t="n">
-        <v>1378634.532810741</v>
+        <v>24855459.71910381</v>
       </c>
       <c r="G11" t="n">
-        <v>204059.0732702424</v>
+        <v>24106997.36513269</v>
       </c>
       <c r="H11" t="n">
-        <v>870748.0274560293</v>
+        <v>24795213.02225212</v>
       </c>
       <c r="I11" t="n">
-        <v>348694.4967691455</v>
+        <v>23007419.74709865</v>
       </c>
       <c r="J11" t="n">
-        <v>1379508.689300477</v>
+        <v>27439894.16850782</v>
       </c>
       <c r="K11" t="n">
-        <v>204933.2297599779</v>
+        <v>26691431.81453671</v>
       </c>
       <c r="L11" t="n">
-        <v>871622.1839457648</v>
+        <v>27379647.47165614</v>
       </c>
       <c r="M11" t="n">
-        <v>349568.653258881</v>
+        <v>25591854.19650267</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>571615.4987459742</v>
+        <v>45654634.72358858</v>
       </c>
       <c r="C12" t="n">
-        <v>607942.2445477052</v>
+        <v>47801885.76386137</v>
       </c>
       <c r="D12" t="n">
-        <v>691144.7912566933</v>
+        <v>44372981.13302608</v>
       </c>
       <c r="E12" t="n">
-        <v>475899.9553187125</v>
+        <v>42411018.82280569</v>
       </c>
       <c r="F12" t="n">
-        <v>483700.423502136</v>
+        <v>47978718.11795207</v>
       </c>
       <c r="G12" t="n">
-        <v>520027.1693038671</v>
+        <v>50125969.15822486</v>
       </c>
       <c r="H12" t="n">
-        <v>603229.7160128553</v>
+        <v>46697064.52738957</v>
       </c>
       <c r="I12" t="n">
-        <v>387984.8800748745</v>
+        <v>44735102.21716918</v>
       </c>
       <c r="J12" t="n">
-        <v>395785.3482582981</v>
+        <v>50302801.51231556</v>
       </c>
       <c r="K12" t="n">
-        <v>432112.0940600292</v>
+        <v>52450052.55258835</v>
       </c>
       <c r="L12" t="n">
-        <v>515314.6407690174</v>
+        <v>49021147.92175306</v>
       </c>
       <c r="M12" t="n">
-        <v>300069.8048310366</v>
+        <v>47059185.61153267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3208809.68956001</v>
+        <v>37611574.48822796</v>
       </c>
       <c r="C13" t="n">
-        <v>3554887.294003374</v>
+        <v>37142870.867478</v>
       </c>
       <c r="D13" t="n">
-        <v>3901131.197432871</v>
+        <v>38073417.20412736</v>
       </c>
       <c r="E13" t="n">
-        <v>4247125.362500157</v>
+        <v>33632312.12198807</v>
       </c>
       <c r="F13" t="n">
-        <v>4593346.958917142</v>
+        <v>38623344.24861386</v>
       </c>
       <c r="G13" t="n">
-        <v>4939424.563360507</v>
+        <v>38154640.6278639</v>
       </c>
       <c r="H13" t="n">
-        <v>5285668.466790004</v>
+        <v>39085186.96451326</v>
       </c>
       <c r="I13" t="n">
-        <v>5631662.631857291</v>
+        <v>34644081.88237397</v>
       </c>
       <c r="J13" t="n">
-        <v>5977884.228274276</v>
+        <v>39635114.00899976</v>
       </c>
       <c r="K13" t="n">
-        <v>6323961.83271764</v>
+        <v>39166410.3882498</v>
       </c>
       <c r="L13" t="n">
-        <v>6670205.736147137</v>
+        <v>40096956.72489916</v>
       </c>
       <c r="M13" t="n">
-        <v>7016199.901214425</v>
+        <v>35655851.64275987</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-440359.2472551892</v>
+        <v>977586.6909753806</v>
       </c>
       <c r="C14" t="n">
-        <v>176075.2154922364</v>
+        <v>1049920.765182758</v>
       </c>
       <c r="D14" t="n">
-        <v>444245.8542832716</v>
+        <v>1015145.17557253</v>
       </c>
       <c r="E14" t="n">
-        <v>93639.91741020154</v>
+        <v>957785.4457979209</v>
       </c>
       <c r="F14" t="n">
-        <v>-360840.6793011928</v>
+        <v>1035719.979927378</v>
       </c>
       <c r="G14" t="n">
-        <v>255593.7834462329</v>
+        <v>1108054.054134755</v>
       </c>
       <c r="H14" t="n">
-        <v>523764.4222372681</v>
+        <v>1073278.464524527</v>
       </c>
       <c r="I14" t="n">
-        <v>173158.485364198</v>
+        <v>1015918.734749918</v>
       </c>
       <c r="J14" t="n">
-        <v>-281322.1113471963</v>
+        <v>1093853.268879375</v>
       </c>
       <c r="K14" t="n">
-        <v>335112.3514002294</v>
+        <v>1166187.343086752</v>
       </c>
       <c r="L14" t="n">
-        <v>603282.9901912645</v>
+        <v>1131411.753476524</v>
       </c>
       <c r="M14" t="n">
-        <v>252677.0533181945</v>
+        <v>1074052.023701915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1019347.211271055</v>
+        <v>4875592.181060009</v>
       </c>
       <c r="C15" t="n">
-        <v>988817.8819655061</v>
+        <v>4907881.35252763</v>
       </c>
       <c r="D15" t="n">
-        <v>961370.6099419839</v>
+        <v>5420776.352854842</v>
       </c>
       <c r="E15" t="n">
-        <v>1616912.548351934</v>
+        <v>5272162.439923553</v>
       </c>
       <c r="F15" t="n">
-        <v>1230284.213369938</v>
+        <v>5411558.859405387</v>
       </c>
       <c r="G15" t="n">
-        <v>1199754.884064389</v>
+        <v>5443848.030873008</v>
       </c>
       <c r="H15" t="n">
-        <v>1172307.612040867</v>
+        <v>5956743.031200221</v>
       </c>
       <c r="I15" t="n">
-        <v>1827849.550450816</v>
+        <v>5808129.118268931</v>
       </c>
       <c r="J15" t="n">
-        <v>1441221.215468821</v>
+        <v>5947525.537750766</v>
       </c>
       <c r="K15" t="n">
-        <v>1410691.886163271</v>
+        <v>5979814.709218387</v>
       </c>
       <c r="L15" t="n">
-        <v>1383244.614139749</v>
+        <v>6492709.709545599</v>
       </c>
       <c r="M15" t="n">
-        <v>2038786.552549699</v>
+        <v>6344095.79661431</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1694444.464035102</v>
+        <v>9839290.439152008</v>
       </c>
       <c r="C16" t="n">
-        <v>1765405.595247205</v>
+        <v>9693495.514016211</v>
       </c>
       <c r="D16" t="n">
-        <v>1836167.203390406</v>
+        <v>10009495.29172266</v>
       </c>
       <c r="E16" t="n">
-        <v>1907128.274414663</v>
+        <v>9792118.195433466</v>
       </c>
       <c r="F16" t="n">
-        <v>1977844.817385915</v>
+        <v>10108125.28140729</v>
       </c>
       <c r="G16" t="n">
-        <v>2048805.948598017</v>
+        <v>9962330.35627149</v>
       </c>
       <c r="H16" t="n">
-        <v>2119567.556741219</v>
+        <v>10278330.13397794</v>
       </c>
       <c r="I16" t="n">
-        <v>2190528.627765476</v>
+        <v>10060953.03768875</v>
       </c>
       <c r="J16" t="n">
-        <v>2261245.170736728</v>
+        <v>10376960.12366257</v>
       </c>
       <c r="K16" t="n">
-        <v>2332206.30194883</v>
+        <v>10231165.19852677</v>
       </c>
       <c r="L16" t="n">
-        <v>2402967.910092032</v>
+        <v>10547164.97623322</v>
       </c>
       <c r="M16" t="n">
-        <v>2473928.981116288</v>
+        <v>10329787.87994402</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6290617.403294396</v>
+        <v>5576691.293170162</v>
       </c>
       <c r="C17" t="n">
-        <v>6386936.852468703</v>
+        <v>5600630.965095616</v>
       </c>
       <c r="D17" t="n">
-        <v>6483922.50701011</v>
+        <v>7167163.859471484</v>
       </c>
       <c r="E17" t="n">
-        <v>6581029.585924026</v>
+        <v>4394393.069425474</v>
       </c>
       <c r="F17" t="n">
-        <v>6677853.80347589</v>
+        <v>5975180.933423981</v>
       </c>
       <c r="G17" t="n">
-        <v>6774173.252650198</v>
+        <v>5999120.605349435</v>
       </c>
       <c r="H17" t="n">
-        <v>6871158.907191604</v>
+        <v>7565653.499725304</v>
       </c>
       <c r="I17" t="n">
-        <v>6968265.98610552</v>
+        <v>4792882.709679293</v>
       </c>
       <c r="J17" t="n">
-        <v>7065090.203657385</v>
+        <v>6373670.573677801</v>
       </c>
       <c r="K17" t="n">
-        <v>7161409.652831692</v>
+        <v>6397610.245603255</v>
       </c>
       <c r="L17" t="n">
-        <v>7258395.307373099</v>
+        <v>7964143.139979123</v>
       </c>
       <c r="M17" t="n">
-        <v>7355502.386287015</v>
+        <v>5191372.349933113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>221563.0318495767</v>
+        <v>3769912.526189514</v>
       </c>
       <c r="C18" t="n">
-        <v>243671.3772985109</v>
+        <v>3576682.308210765</v>
       </c>
       <c r="D18" t="n">
-        <v>241249.7530108466</v>
+        <v>3630304.932382178</v>
       </c>
       <c r="E18" t="n">
-        <v>175716.9449495489</v>
+        <v>3904621.321815003</v>
       </c>
       <c r="F18" t="n">
-        <v>-218966.21279408</v>
+        <v>4040318.422226124</v>
       </c>
       <c r="G18" t="n">
-        <v>-196857.8673451458</v>
+        <v>3847088.204247375</v>
       </c>
       <c r="H18" t="n">
-        <v>-199279.4916328102</v>
+        <v>3900710.828418788</v>
       </c>
       <c r="I18" t="n">
-        <v>-264812.2996941078</v>
+        <v>4175027.217851613</v>
       </c>
       <c r="J18" t="n">
-        <v>-659495.4574377368</v>
+        <v>4310724.318262734</v>
       </c>
       <c r="K18" t="n">
-        <v>-637387.1119888026</v>
+        <v>4117494.100283985</v>
       </c>
       <c r="L18" t="n">
-        <v>-639808.7362764669</v>
+        <v>4171116.724455398</v>
       </c>
       <c r="M18" t="n">
-        <v>-705341.5443377645</v>
+        <v>4445433.113888223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46351.06076321934</v>
+        <v>6153924.872235006</v>
       </c>
       <c r="C19" t="n">
-        <v>-26479.76608519231</v>
+        <v>5723500.88102908</v>
       </c>
       <c r="D19" t="n">
-        <v>39835.01588589757</v>
+        <v>5996590.15774391</v>
       </c>
       <c r="E19" t="n">
-        <v>21903.51630746771</v>
+        <v>4385207.25625605</v>
       </c>
       <c r="F19" t="n">
-        <v>96213.21408276138</v>
+        <v>6233193.066727104</v>
       </c>
       <c r="G19" t="n">
-        <v>23382.38723434973</v>
+        <v>5802769.075521178</v>
       </c>
       <c r="H19" t="n">
-        <v>89697.16920543961</v>
+        <v>6075858.352236008</v>
       </c>
       <c r="I19" t="n">
-        <v>71765.66962700976</v>
+        <v>4464475.450748148</v>
       </c>
       <c r="J19" t="n">
-        <v>146075.3674023034</v>
+        <v>6312461.261219202</v>
       </c>
       <c r="K19" t="n">
-        <v>73244.5405538918</v>
+        <v>5882037.270013276</v>
       </c>
       <c r="L19" t="n">
-        <v>139559.3225249817</v>
+        <v>6155126.546728106</v>
       </c>
       <c r="M19" t="n">
-        <v>121627.8229465518</v>
+        <v>4543743.645240246</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2517364.895039458</v>
+        <v>2084105.461371199</v>
       </c>
       <c r="C20" t="n">
-        <v>2583811.133261491</v>
+        <v>1292746.910932706</v>
       </c>
       <c r="D20" t="n">
-        <v>2442006.187304494</v>
+        <v>557621.9570226462</v>
       </c>
       <c r="E20" t="n">
-        <v>2667073.737873153</v>
+        <v>484627.8415800598</v>
       </c>
       <c r="F20" t="n">
-        <v>2602734.032468852</v>
+        <v>1637025.223011162</v>
       </c>
       <c r="G20" t="n">
-        <v>2669180.270690884</v>
+        <v>845666.672572669</v>
       </c>
       <c r="H20" t="n">
-        <v>2527375.324733887</v>
+        <v>110541.7186626092</v>
       </c>
       <c r="I20" t="n">
-        <v>2752442.875302547</v>
+        <v>37547.60322002275</v>
       </c>
       <c r="J20" t="n">
-        <v>2688103.169898245</v>
+        <v>1189944.984651125</v>
       </c>
       <c r="K20" t="n">
-        <v>2754549.408120278</v>
+        <v>398586.4342126319</v>
       </c>
       <c r="L20" t="n">
-        <v>2612744.462163281</v>
+        <v>-336538.5196974279</v>
       </c>
       <c r="M20" t="n">
-        <v>2837812.01273194</v>
+        <v>-409532.6351400143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1170364.155931339</v>
+        <v>3654929.631052668</v>
       </c>
       <c r="C21" t="n">
-        <v>1543999.849355993</v>
+        <v>4022423.213867277</v>
       </c>
       <c r="D21" t="n">
-        <v>1302501.472973091</v>
+        <v>4359769.052235049</v>
       </c>
       <c r="E21" t="n">
-        <v>1501933.859873698</v>
+        <v>3267935.097526083</v>
       </c>
       <c r="F21" t="n">
-        <v>1152739.332287452</v>
+        <v>3745549.926440026</v>
       </c>
       <c r="G21" t="n">
-        <v>1526375.025712106</v>
+        <v>4113043.509254635</v>
       </c>
       <c r="H21" t="n">
-        <v>1284876.649329204</v>
+        <v>4450389.347622407</v>
       </c>
       <c r="I21" t="n">
-        <v>1484309.036229811</v>
+        <v>3358555.39291344</v>
       </c>
       <c r="J21" t="n">
-        <v>1135114.508643566</v>
+        <v>3836170.221827383</v>
       </c>
       <c r="K21" t="n">
-        <v>1508750.20206822</v>
+        <v>4203663.804641992</v>
       </c>
       <c r="L21" t="n">
-        <v>1267251.825685318</v>
+        <v>4541009.643009764</v>
       </c>
       <c r="M21" t="n">
-        <v>1466684.212585925</v>
+        <v>3449175.688300798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536601.4993056445</v>
+        <v>14472469.58201463</v>
       </c>
       <c r="C22" t="n">
-        <v>536679.1816058796</v>
+        <v>13819046.29051007</v>
       </c>
       <c r="D22" t="n">
-        <v>537223.5806760493</v>
+        <v>15297863.7376434</v>
       </c>
       <c r="E22" t="n">
-        <v>537010.9840234856</v>
+        <v>13886160.95814239</v>
       </c>
       <c r="F22" t="n">
-        <v>536840.1217771075</v>
+        <v>15669643.65204735</v>
       </c>
       <c r="G22" t="n">
-        <v>536917.8040773425</v>
+        <v>15016220.3605428</v>
       </c>
       <c r="H22" t="n">
-        <v>537462.2031475123</v>
+        <v>16495037.80767612</v>
       </c>
       <c r="I22" t="n">
-        <v>537249.6064949485</v>
+        <v>15083335.02817512</v>
       </c>
       <c r="J22" t="n">
-        <v>537078.7442485704</v>
+        <v>16866817.72208008</v>
       </c>
       <c r="K22" t="n">
-        <v>537156.4265488054</v>
+        <v>16213394.43057552</v>
       </c>
       <c r="L22" t="n">
-        <v>537700.8256189752</v>
+        <v>17692211.87770884</v>
       </c>
       <c r="M22" t="n">
-        <v>537488.2289664114</v>
+        <v>16280509.09820784</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4090.89459606448</v>
+        <v>5709320.805599965</v>
       </c>
       <c r="C23" t="n">
-        <v>4142.905502647885</v>
+        <v>5863835.185661703</v>
       </c>
       <c r="D23" t="n">
-        <v>4125.828365750629</v>
+        <v>7741093.34328371</v>
       </c>
       <c r="E23" t="n">
-        <v>4212.771191508714</v>
+        <v>5486938.621991543</v>
       </c>
       <c r="F23" t="n">
-        <v>4096.4527580657</v>
+        <v>5499046.902261406</v>
       </c>
       <c r="G23" t="n">
-        <v>4148.463664649105</v>
+        <v>5653561.282323144</v>
       </c>
       <c r="H23" t="n">
-        <v>4131.386527751849</v>
+        <v>7530819.439945151</v>
       </c>
       <c r="I23" t="n">
-        <v>4218.329353509934</v>
+        <v>5276664.718652984</v>
       </c>
       <c r="J23" t="n">
-        <v>4102.01092006692</v>
+        <v>5288772.998922847</v>
       </c>
       <c r="K23" t="n">
-        <v>4154.021826650325</v>
+        <v>5443287.378984585</v>
       </c>
       <c r="L23" t="n">
-        <v>4136.944689753069</v>
+        <v>7320545.536606592</v>
       </c>
       <c r="M23" t="n">
-        <v>4223.887515511154</v>
+        <v>5066390.815314425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12216083.61734203</v>
+        <v>10783193.08423812</v>
       </c>
       <c r="C24" t="n">
-        <v>13167232.28951251</v>
+        <v>11366414.30082048</v>
       </c>
       <c r="D24" t="n">
-        <v>14421088.15317571</v>
+        <v>12027543.94507672</v>
       </c>
       <c r="E24" t="n">
-        <v>14321469.02064335</v>
+        <v>10817097.70503622</v>
       </c>
       <c r="F24" t="n">
-        <v>13025820.135502</v>
+        <v>11691424.38175187</v>
       </c>
       <c r="G24" t="n">
-        <v>13976968.80767248</v>
+        <v>12274645.59833422</v>
       </c>
       <c r="H24" t="n">
-        <v>15230824.67133568</v>
+        <v>12935775.24259047</v>
       </c>
       <c r="I24" t="n">
-        <v>15131205.53880332</v>
+        <v>11725329.00254997</v>
       </c>
       <c r="J24" t="n">
-        <v>13835556.65366197</v>
+        <v>12599655.67926561</v>
       </c>
       <c r="K24" t="n">
-        <v>14786705.32583245</v>
+        <v>13182876.89584797</v>
       </c>
       <c r="L24" t="n">
-        <v>16040561.18949565</v>
+        <v>13844006.54010421</v>
       </c>
       <c r="M24" t="n">
-        <v>15940942.05696329</v>
+        <v>12633560.30006372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2586821.840280485</v>
+        <v>4317484.360734751</v>
       </c>
       <c r="C25" t="n">
-        <v>3060044.371192994</v>
+        <v>4934359.780206599</v>
       </c>
       <c r="D25" t="n">
-        <v>2876177.873366034</v>
+        <v>4705635.905487445</v>
       </c>
       <c r="E25" t="n">
-        <v>3115844.592943764</v>
+        <v>3952347.397242658</v>
       </c>
       <c r="F25" t="n">
-        <v>2650143.966290993</v>
+        <v>4186261.460034916</v>
       </c>
       <c r="G25" t="n">
-        <v>3123366.497203501</v>
+        <v>4803136.879506764</v>
       </c>
       <c r="H25" t="n">
-        <v>2939499.999376541</v>
+        <v>4574413.00478761</v>
       </c>
       <c r="I25" t="n">
-        <v>3179166.718954272</v>
+        <v>3821124.496542823</v>
       </c>
       <c r="J25" t="n">
-        <v>2713466.0923015</v>
+        <v>4055038.559335081</v>
       </c>
       <c r="K25" t="n">
-        <v>3186688.623214008</v>
+        <v>4671913.978806929</v>
       </c>
       <c r="L25" t="n">
-        <v>3002822.125387049</v>
+        <v>4443190.104087775</v>
       </c>
       <c r="M25" t="n">
-        <v>3242488.844964779</v>
+        <v>3689901.595842988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11846849.13392127</v>
+        <v>9811564.197755896</v>
       </c>
       <c r="C26" t="n">
-        <v>12529598.93968734</v>
+        <v>9847226.223573476</v>
       </c>
       <c r="D26" t="n">
-        <v>12200879.88493389</v>
+        <v>11681269.89914625</v>
       </c>
       <c r="E26" t="n">
-        <v>13403781.24812909</v>
+        <v>10502548.15687957</v>
       </c>
       <c r="F26" t="n">
-        <v>12303378.05530945</v>
+        <v>10705953.1290388</v>
       </c>
       <c r="G26" t="n">
-        <v>12986127.86107552</v>
+        <v>10741615.15485638</v>
       </c>
       <c r="H26" t="n">
-        <v>12657408.80632207</v>
+        <v>12575658.83042915</v>
       </c>
       <c r="I26" t="n">
-        <v>13860310.16951727</v>
+        <v>11396937.08816247</v>
       </c>
       <c r="J26" t="n">
-        <v>12759906.97669763</v>
+        <v>11600342.0603217</v>
       </c>
       <c r="K26" t="n">
-        <v>13442656.7824637</v>
+        <v>11636004.08613928</v>
       </c>
       <c r="L26" t="n">
-        <v>13113937.72771025</v>
+        <v>13470047.76171205</v>
       </c>
       <c r="M26" t="n">
-        <v>14316839.09090544</v>
+        <v>12291326.01944537</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17456707.3650218</v>
+        <v>3035765.661966417</v>
       </c>
       <c r="C27" t="n">
-        <v>18665774.71378502</v>
+        <v>3654234.660783783</v>
       </c>
       <c r="D27" t="n">
-        <v>18006906.06006492</v>
+        <v>3510142.035481158</v>
       </c>
       <c r="E27" t="n">
-        <v>20203450.16303461</v>
+        <v>2199980.202515101</v>
       </c>
       <c r="F27" t="n">
-        <v>18748925.64282325</v>
+        <v>2773591.992213033</v>
       </c>
       <c r="G27" t="n">
-        <v>19957992.99158648</v>
+        <v>3392060.991030399</v>
       </c>
       <c r="H27" t="n">
-        <v>19299124.33786637</v>
+        <v>3247968.365727774</v>
       </c>
       <c r="I27" t="n">
-        <v>21495668.44083607</v>
+        <v>1937806.532761717</v>
       </c>
       <c r="J27" t="n">
-        <v>20041143.9206247</v>
+        <v>2511418.322459649</v>
       </c>
       <c r="K27" t="n">
-        <v>21250211.26938793</v>
+        <v>3129887.321277015</v>
       </c>
       <c r="L27" t="n">
-        <v>20591342.61566783</v>
+        <v>2985794.69597439</v>
       </c>
       <c r="M27" t="n">
-        <v>22787886.71863752</v>
+        <v>1675632.863008333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20781493.70158208</v>
+        <v>9779548.376633257</v>
       </c>
       <c r="C28" t="n">
-        <v>21367644.76211465</v>
+        <v>11879983.9971447</v>
       </c>
       <c r="D28" t="n">
-        <v>21954556.46694511</v>
+        <v>12505918.06319906</v>
       </c>
       <c r="E28" t="n">
-        <v>22538715.40862628</v>
+        <v>8036071.094936481</v>
       </c>
       <c r="F28" t="n">
-        <v>23123354.23717738</v>
+        <v>9921408.035134174</v>
       </c>
       <c r="G28" t="n">
-        <v>23709505.29770995</v>
+        <v>12021843.65564561</v>
       </c>
       <c r="H28" t="n">
-        <v>24296417.00254041</v>
+        <v>12647777.72169998</v>
       </c>
       <c r="I28" t="n">
-        <v>24880575.94422158</v>
+        <v>8177930.753437398</v>
       </c>
       <c r="J28" t="n">
-        <v>25465214.77277268</v>
+        <v>10063267.69363509</v>
       </c>
       <c r="K28" t="n">
-        <v>26051365.83330525</v>
+        <v>12163703.31414653</v>
       </c>
       <c r="L28" t="n">
-        <v>26638277.5381357</v>
+        <v>12789637.38020089</v>
       </c>
       <c r="M28" t="n">
-        <v>27222436.47981688</v>
+        <v>8319790.411938315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23169875.9036161</v>
+        <v>1845379.336924362</v>
       </c>
       <c r="C29" t="n">
-        <v>25562481.63122264</v>
+        <v>1883188.824696261</v>
       </c>
       <c r="D29" t="n">
-        <v>25562473.47279882</v>
+        <v>1865171.090798366</v>
       </c>
       <c r="E29" t="n">
-        <v>26595744.94286047</v>
+        <v>1892633.159453024</v>
       </c>
       <c r="F29" t="n">
-        <v>27435395.94502242</v>
+        <v>1929705.090747688</v>
       </c>
       <c r="G29" t="n">
-        <v>29828001.67262895</v>
+        <v>1967514.578519586</v>
       </c>
       <c r="H29" t="n">
-        <v>29827993.51420514</v>
+        <v>1949496.844621692</v>
       </c>
       <c r="I29" t="n">
-        <v>30861264.98426679</v>
+        <v>1976958.91327635</v>
       </c>
       <c r="J29" t="n">
-        <v>31700915.98642874</v>
+        <v>2014030.844571014</v>
       </c>
       <c r="K29" t="n">
-        <v>34093521.71403527</v>
+        <v>2051840.332342912</v>
       </c>
       <c r="L29" t="n">
-        <v>34093513.55561146</v>
+        <v>2033822.598445018</v>
       </c>
       <c r="M29" t="n">
-        <v>35126785.0256731</v>
+        <v>2061284.667099676</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42576252.58965155</v>
+        <v>197970.8994977925</v>
       </c>
       <c r="C30" t="n">
-        <v>48216627.618383</v>
+        <v>160345.1396477514</v>
       </c>
       <c r="D30" t="n">
-        <v>52125315.15386587</v>
+        <v>155521.7714465243</v>
       </c>
       <c r="E30" t="n">
-        <v>47085117.91525956</v>
+        <v>69869.37114460154</v>
       </c>
       <c r="F30" t="n">
-        <v>45199773.17367642</v>
+        <v>-20676.61926480195</v>
       </c>
       <c r="G30" t="n">
-        <v>50840148.20240787</v>
+        <v>-58302.37911484304</v>
       </c>
       <c r="H30" t="n">
-        <v>54748835.73789075</v>
+        <v>-63125.7473160701</v>
       </c>
       <c r="I30" t="n">
-        <v>49708638.49928444</v>
+        <v>-148778.1476179929</v>
       </c>
       <c r="J30" t="n">
-        <v>47823293.7577013</v>
+        <v>-239324.1380273964</v>
       </c>
       <c r="K30" t="n">
-        <v>53463668.78643275</v>
+        <v>-276949.8978774375</v>
       </c>
       <c r="L30" t="n">
-        <v>57372356.32191563</v>
+        <v>-281773.2660786646</v>
       </c>
       <c r="M30" t="n">
-        <v>52332159.08330932</v>
+        <v>-367425.6663805873</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36689750.36358494</v>
+        <v>876753.9741612575</v>
       </c>
       <c r="C31" t="n">
-        <v>39940202.49070093</v>
+        <v>900383.7214129326</v>
       </c>
       <c r="D31" t="n">
-        <v>40968349.46639828</v>
+        <v>1049057.580841223</v>
       </c>
       <c r="E31" t="n">
-        <v>40626190.20289513</v>
+        <v>974809.2239094311</v>
       </c>
       <c r="F31" t="n">
-        <v>37809238.71413425</v>
+        <v>973877.8560080482</v>
       </c>
       <c r="G31" t="n">
-        <v>41059690.84125024</v>
+        <v>997507.6032597233</v>
       </c>
       <c r="H31" t="n">
-        <v>42087837.81694759</v>
+        <v>1146181.462688013</v>
       </c>
       <c r="I31" t="n">
-        <v>41745678.55344445</v>
+        <v>1071933.105756222</v>
       </c>
       <c r="J31" t="n">
-        <v>38928727.06468356</v>
+        <v>1071001.737854839</v>
       </c>
       <c r="K31" t="n">
-        <v>42179179.19179955</v>
+        <v>1094631.485106514</v>
       </c>
       <c r="L31" t="n">
-        <v>43207326.1674969</v>
+        <v>1243305.344534805</v>
       </c>
       <c r="M31" t="n">
-        <v>42865166.90399376</v>
+        <v>1169056.987603013</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575176.549367346</v>
+        <v>1695055.659854137</v>
       </c>
       <c r="C32" t="n">
-        <v>1694523.799153426</v>
+        <v>1749821.239549461</v>
       </c>
       <c r="D32" t="n">
-        <v>1813961.618659006</v>
+        <v>1747110.662089615</v>
       </c>
       <c r="E32" t="n">
-        <v>1933130.793577221</v>
+        <v>1708248.021792044</v>
       </c>
       <c r="F32" t="n">
-        <v>2052381.80412765</v>
+        <v>1753051.780369663</v>
       </c>
       <c r="G32" t="n">
-        <v>2171729.053913731</v>
+        <v>1807817.360064987</v>
       </c>
       <c r="H32" t="n">
-        <v>2291166.87341931</v>
+        <v>1805106.78260514</v>
       </c>
       <c r="I32" t="n">
-        <v>2410336.048337525</v>
+        <v>1766244.142307569</v>
       </c>
       <c r="J32" t="n">
-        <v>2529587.058887954</v>
+        <v>1811047.900885188</v>
       </c>
       <c r="K32" t="n">
-        <v>2648934.308674035</v>
+        <v>1865813.480580512</v>
       </c>
       <c r="L32" t="n">
-        <v>2768372.128179614</v>
+        <v>1863102.903120666</v>
       </c>
       <c r="M32" t="n">
-        <v>2887541.303097829</v>
+        <v>1824240.262823095</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4884407.414329929</v>
+        <v>2857579.831736962</v>
       </c>
       <c r="C33" t="n">
-        <v>5029228.754244511</v>
+        <v>2927597.826799197</v>
       </c>
       <c r="D33" t="n">
-        <v>5147051.346368416</v>
+        <v>2974614.080824832</v>
       </c>
       <c r="E33" t="n">
-        <v>5585340.063837319</v>
+        <v>2887270.608531037</v>
       </c>
       <c r="F33" t="n">
-        <v>5442230.616152009</v>
+        <v>3015303.461247199</v>
       </c>
       <c r="G33" t="n">
-        <v>5587051.956066591</v>
+        <v>3085321.456309434</v>
       </c>
       <c r="H33" t="n">
-        <v>5704874.548190496</v>
+        <v>3132337.710335069</v>
       </c>
       <c r="I33" t="n">
-        <v>6143163.265659398</v>
+        <v>3044994.238041274</v>
       </c>
       <c r="J33" t="n">
-        <v>6000053.817974089</v>
+        <v>3173027.090757436</v>
       </c>
       <c r="K33" t="n">
-        <v>6144875.15788867</v>
+        <v>3243045.08581967</v>
       </c>
       <c r="L33" t="n">
-        <v>6262697.750012576</v>
+        <v>3290061.339845306</v>
       </c>
       <c r="M33" t="n">
-        <v>6700986.467481478</v>
+        <v>3202717.867551511</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11861750.01800624</v>
+        <v>3173241.585621301</v>
       </c>
       <c r="C34" t="n">
-        <v>12349285.46113396</v>
+        <v>3039265.401301064</v>
       </c>
       <c r="D34" t="n">
-        <v>12805279.81305976</v>
+        <v>3275008.457807107</v>
       </c>
       <c r="E34" t="n">
-        <v>12863592.56338016</v>
+        <v>3010895.486699963</v>
       </c>
       <c r="F34" t="n">
-        <v>12818610.37622649</v>
+        <v>3414770.980848316</v>
       </c>
       <c r="G34" t="n">
-        <v>13306145.8193542</v>
+        <v>3280794.796528079</v>
       </c>
       <c r="H34" t="n">
-        <v>13762140.17128001</v>
+        <v>3516537.853034122</v>
       </c>
       <c r="I34" t="n">
-        <v>13820452.92160041</v>
+        <v>3252424.881926978</v>
       </c>
       <c r="J34" t="n">
-        <v>13775470.73444673</v>
+        <v>3656300.376075331</v>
       </c>
       <c r="K34" t="n">
-        <v>14263006.17757444</v>
+        <v>3522324.191755094</v>
       </c>
       <c r="L34" t="n">
-        <v>14719000.52950025</v>
+        <v>3758067.248261137</v>
       </c>
       <c r="M34" t="n">
-        <v>14777313.27982065</v>
+        <v>3493954.277153993</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6193705.918963327</v>
+        <v>1246511.371534338</v>
       </c>
       <c r="C35" t="n">
-        <v>6637882.625363505</v>
+        <v>1226967.78873716</v>
       </c>
       <c r="D35" t="n">
-        <v>6617430.891783791</v>
+        <v>1248275.68054209</v>
       </c>
       <c r="E35" t="n">
-        <v>6723460.629922186</v>
+        <v>1248434.743986871</v>
       </c>
       <c r="F35" t="n">
-        <v>6814940.478472478</v>
+        <v>1247422.006395375</v>
       </c>
       <c r="G35" t="n">
-        <v>7259117.184872655</v>
+        <v>1227878.423598197</v>
       </c>
       <c r="H35" t="n">
-        <v>7238665.451292941</v>
+        <v>1249186.315403126</v>
       </c>
       <c r="I35" t="n">
-        <v>7344695.189431337</v>
+        <v>1249345.378847907</v>
       </c>
       <c r="J35" t="n">
-        <v>7436175.037981628</v>
+        <v>1248332.641256411</v>
       </c>
       <c r="K35" t="n">
-        <v>7880351.744381806</v>
+        <v>1228789.058459233</v>
       </c>
       <c r="L35" t="n">
-        <v>7859900.010802092</v>
+        <v>1250096.950264162</v>
       </c>
       <c r="M35" t="n">
-        <v>7965929.748940487</v>
+        <v>1250256.013708943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3546172.780174619</v>
+        <v>1005735.750714393</v>
       </c>
       <c r="C36" t="n">
-        <v>3840481.814560784</v>
+        <v>961419.9072776749</v>
       </c>
       <c r="D36" t="n">
-        <v>3594171.102263681</v>
+        <v>856629.8773496748</v>
       </c>
       <c r="E36" t="n">
-        <v>3606373.28094316</v>
+        <v>899771.0684498668</v>
       </c>
       <c r="F36" t="n">
-        <v>3732296.046730474</v>
+        <v>1059611.454450097</v>
       </c>
       <c r="G36" t="n">
-        <v>4026605.081116639</v>
+        <v>1015295.611013378</v>
       </c>
       <c r="H36" t="n">
-        <v>3780294.368819536</v>
+        <v>910505.5810853784</v>
       </c>
       <c r="I36" t="n">
-        <v>3792496.547499015</v>
+        <v>953646.7721855704</v>
       </c>
       <c r="J36" t="n">
-        <v>3918419.313286329</v>
+        <v>1113487.158185801</v>
       </c>
       <c r="K36" t="n">
-        <v>4212728.347672494</v>
+        <v>1069171.314749082</v>
       </c>
       <c r="L36" t="n">
-        <v>3966417.635375391</v>
+        <v>964381.284821082</v>
       </c>
       <c r="M36" t="n">
-        <v>3978619.81405487</v>
+        <v>1007522.475921274</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4247958.918896301</v>
+        <v>3661562.764824357</v>
       </c>
       <c r="C37" t="n">
-        <v>6443215.933352951</v>
+        <v>4043897.722001737</v>
       </c>
       <c r="D37" t="n">
-        <v>6313230.249905724</v>
+        <v>3615001.979554573</v>
       </c>
       <c r="E37" t="n">
-        <v>6422636.202938956</v>
+        <v>3029078.915288753</v>
       </c>
       <c r="F37" t="n">
-        <v>4918494.972929368</v>
+        <v>3525583.920254253</v>
       </c>
       <c r="G37" t="n">
-        <v>7113751.987386018</v>
+        <v>3907918.877431633</v>
       </c>
       <c r="H37" t="n">
-        <v>6983766.303938791</v>
+        <v>3479023.134984469</v>
       </c>
       <c r="I37" t="n">
-        <v>7093172.256972023</v>
+        <v>2893100.070718649</v>
       </c>
       <c r="J37" t="n">
-        <v>5589031.026962435</v>
+        <v>3389605.075684149</v>
       </c>
       <c r="K37" t="n">
-        <v>7784288.041419085</v>
+        <v>3771940.032861529</v>
       </c>
       <c r="L37" t="n">
-        <v>7654302.357971858</v>
+        <v>3343044.290414365</v>
       </c>
       <c r="M37" t="n">
-        <v>7763708.31100509</v>
+        <v>2757121.226148545</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1283833.663118762</v>
+        <v>4319146.323903603</v>
       </c>
       <c r="C38" t="n">
-        <v>2385136.074394339</v>
+        <v>4209532.658895412</v>
       </c>
       <c r="D38" t="n">
-        <v>1704022.746719196</v>
+        <v>4374501.635201683</v>
       </c>
       <c r="E38" t="n">
-        <v>908789.5347834161</v>
+        <v>4376645.763693681</v>
       </c>
       <c r="F38" t="n">
-        <v>1008680.521871376</v>
+        <v>4512181.597640646</v>
       </c>
       <c r="G38" t="n">
-        <v>2109982.933146953</v>
+        <v>4402567.932632455</v>
       </c>
       <c r="H38" t="n">
-        <v>1428869.60547181</v>
+        <v>4567536.908938726</v>
       </c>
       <c r="I38" t="n">
-        <v>633636.39353603</v>
+        <v>4569681.037430724</v>
       </c>
       <c r="J38" t="n">
-        <v>733527.3806239901</v>
+        <v>4705216.871377689</v>
       </c>
       <c r="K38" t="n">
-        <v>1834829.791899567</v>
+        <v>4595603.206369498</v>
       </c>
       <c r="L38" t="n">
-        <v>1153716.464224424</v>
+        <v>4760572.18267577</v>
       </c>
       <c r="M38" t="n">
-        <v>358483.2522886436</v>
+        <v>4762716.311167767</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4030662.277051317</v>
+        <v>4879064.005932574</v>
       </c>
       <c r="C39" t="n">
-        <v>4346062.161158931</v>
+        <v>4869678.482817435</v>
       </c>
       <c r="D39" t="n">
-        <v>4301600.090834858</v>
+        <v>4746197.854150573</v>
       </c>
       <c r="E39" t="n">
-        <v>4589894.560182492</v>
+        <v>4682367.169645839</v>
       </c>
       <c r="F39" t="n">
-        <v>4128940.462674393</v>
+        <v>5228932.775644765</v>
       </c>
       <c r="G39" t="n">
-        <v>4444340.346782006</v>
+        <v>5219547.252529626</v>
       </c>
       <c r="H39" t="n">
-        <v>4399878.276457934</v>
+        <v>5096066.623862764</v>
       </c>
       <c r="I39" t="n">
-        <v>4688172.745805568</v>
+        <v>5032235.93935803</v>
       </c>
       <c r="J39" t="n">
-        <v>4227218.648297468</v>
+        <v>5578801.545356956</v>
       </c>
       <c r="K39" t="n">
-        <v>4542618.532405082</v>
+        <v>5569416.022241817</v>
       </c>
       <c r="L39" t="n">
-        <v>4498156.46208101</v>
+        <v>5445935.393574955</v>
       </c>
       <c r="M39" t="n">
-        <v>4786450.931428644</v>
+        <v>5382104.709070222</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12615790.82683471</v>
+        <v>4849231.040551841</v>
       </c>
       <c r="C40" t="n">
-        <v>14548965.32022369</v>
+        <v>4610905.793682261</v>
       </c>
       <c r="D40" t="n">
-        <v>14332967.2156391</v>
+        <v>4909144.731300249</v>
       </c>
       <c r="E40" t="n">
-        <v>15674784.49013566</v>
+        <v>4367671.437792899</v>
       </c>
       <c r="F40" t="n">
-        <v>14413739.20300602</v>
+        <v>4608862.477982327</v>
       </c>
       <c r="G40" t="n">
-        <v>16346913.696395</v>
+        <v>4370537.231112747</v>
       </c>
       <c r="H40" t="n">
-        <v>16130915.59181041</v>
+        <v>4668776.168730735</v>
       </c>
       <c r="I40" t="n">
-        <v>17472732.86630697</v>
+        <v>4127302.875223385</v>
       </c>
       <c r="J40" t="n">
-        <v>16211687.57917734</v>
+        <v>4368493.915412813</v>
       </c>
       <c r="K40" t="n">
-        <v>18144862.07256631</v>
+        <v>4130168.668543234</v>
       </c>
       <c r="L40" t="n">
-        <v>17928863.96798173</v>
+        <v>4428407.606161221</v>
       </c>
       <c r="M40" t="n">
-        <v>19270681.24247829</v>
+        <v>3886934.312653871</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5672434.784303557</v>
+        <v>3263543.256323469</v>
       </c>
       <c r="C41" t="n">
-        <v>5979890.090913769</v>
+        <v>3147383.669808422</v>
       </c>
       <c r="D41" t="n">
-        <v>6139833.527136693</v>
+        <v>3274382.929603613</v>
       </c>
       <c r="E41" t="n">
-        <v>7280346.784968418</v>
+        <v>3074731.523930043</v>
       </c>
       <c r="F41" t="n">
-        <v>6535563.425825469</v>
+        <v>3383925.694930309</v>
       </c>
       <c r="G41" t="n">
-        <v>6843018.732435681</v>
+        <v>3267766.108415262</v>
       </c>
       <c r="H41" t="n">
-        <v>7002962.168658605</v>
+        <v>3394765.368210453</v>
       </c>
       <c r="I41" t="n">
-        <v>8143475.426490331</v>
+        <v>3195113.962536883</v>
       </c>
       <c r="J41" t="n">
-        <v>7398692.067347383</v>
+        <v>3504308.133537149</v>
       </c>
       <c r="K41" t="n">
-        <v>7706147.373957596</v>
+        <v>3388148.547022101</v>
       </c>
       <c r="L41" t="n">
-        <v>7866090.810180521</v>
+        <v>3515147.806817293</v>
       </c>
       <c r="M41" t="n">
-        <v>9006604.068012247</v>
+        <v>3315496.401143722</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10117363.08985796</v>
+        <v>3973529.629408109</v>
       </c>
       <c r="C42" t="n">
-        <v>10970950.50094443</v>
+        <v>4282256.027596354</v>
       </c>
       <c r="D42" t="n">
-        <v>11580203.73657948</v>
+        <v>4130012.867230157</v>
       </c>
       <c r="E42" t="n">
-        <v>12262416.95774028</v>
+        <v>3775906.344232541</v>
       </c>
       <c r="F42" t="n">
-        <v>11086231.78022427</v>
+        <v>4062603.453355017</v>
       </c>
       <c r="G42" t="n">
-        <v>11939819.19131074</v>
+        <v>4371329.851543263</v>
       </c>
       <c r="H42" t="n">
-        <v>12549072.4269458</v>
+        <v>4219086.691177065</v>
       </c>
       <c r="I42" t="n">
-        <v>13231285.6481066</v>
+        <v>3864980.168179449</v>
       </c>
       <c r="J42" t="n">
-        <v>12055100.47059059</v>
+        <v>4151677.277301925</v>
       </c>
       <c r="K42" t="n">
-        <v>12908687.88167706</v>
+        <v>4460403.675490171</v>
       </c>
       <c r="L42" t="n">
-        <v>13517941.11731211</v>
+        <v>4308160.515123974</v>
       </c>
       <c r="M42" t="n">
-        <v>14200154.33847291</v>
+        <v>3954053.992126357</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4610626.543964775</v>
+        <v>2696449.49575539</v>
       </c>
       <c r="C43" t="n">
-        <v>4763321.850161852</v>
+        <v>2917940.894768897</v>
       </c>
       <c r="D43" t="n">
-        <v>5520647.28566751</v>
+        <v>2900060.576632402</v>
       </c>
       <c r="E43" t="n">
-        <v>5190718.164281378</v>
+        <v>2672317.136174096</v>
       </c>
       <c r="F43" t="n">
-        <v>4579274.039795289</v>
+        <v>2701171.178562297</v>
       </c>
       <c r="G43" t="n">
-        <v>4731969.345992366</v>
+        <v>2922662.577575804</v>
       </c>
       <c r="H43" t="n">
-        <v>5489294.781498023</v>
+        <v>2904782.259439309</v>
       </c>
       <c r="I43" t="n">
-        <v>5159365.660111891</v>
+        <v>2677038.818981003</v>
       </c>
       <c r="J43" t="n">
-        <v>4547921.535625802</v>
+        <v>2705892.861369205</v>
       </c>
       <c r="K43" t="n">
-        <v>4700616.841822879</v>
+        <v>2927384.260382711</v>
       </c>
       <c r="L43" t="n">
-        <v>5457942.277328537</v>
+        <v>2909503.942246216</v>
       </c>
       <c r="M43" t="n">
-        <v>5128013.155942405</v>
+        <v>2681760.501787911</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13574449.13772677</v>
+        <v>5930930.8113017</v>
       </c>
       <c r="C44" t="n">
-        <v>13907343.13745053</v>
+        <v>5803814.719585817</v>
       </c>
       <c r="D44" t="n">
-        <v>14414030.52132846</v>
+        <v>5839499.121842125</v>
       </c>
       <c r="E44" t="n">
-        <v>15839642.99832175</v>
+        <v>5586148.879421051</v>
       </c>
       <c r="F44" t="n">
-        <v>15155706.7823782</v>
+        <v>6071984.254783805</v>
       </c>
       <c r="G44" t="n">
-        <v>15488600.78210197</v>
+        <v>5944868.163067922</v>
       </c>
       <c r="H44" t="n">
-        <v>15995288.1659799</v>
+        <v>5980552.56532423</v>
       </c>
       <c r="I44" t="n">
-        <v>17420900.64297318</v>
+        <v>5727202.322903155</v>
       </c>
       <c r="J44" t="n">
-        <v>16736964.42702964</v>
+        <v>6213037.698265909</v>
       </c>
       <c r="K44" t="n">
-        <v>17069858.42675341</v>
+        <v>6085921.606550027</v>
       </c>
       <c r="L44" t="n">
-        <v>17576545.81063134</v>
+        <v>6121606.008806335</v>
       </c>
       <c r="M44" t="n">
-        <v>19002158.28762463</v>
+        <v>5868255.76638526</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3752010.142900446</v>
+        <v>2720682.610482149</v>
       </c>
       <c r="C45" t="n">
-        <v>4274695.88312196</v>
+        <v>2719531.846385464</v>
       </c>
       <c r="D45" t="n">
-        <v>4717142.017141758</v>
+        <v>2764255.922487563</v>
       </c>
       <c r="E45" t="n">
-        <v>4829294.192335971</v>
+        <v>2900622.865605778</v>
       </c>
       <c r="F45" t="n">
-        <v>3634944.764236649</v>
+        <v>2755084.413616663</v>
       </c>
       <c r="G45" t="n">
-        <v>4157630.504458163</v>
+        <v>2753933.649519978</v>
       </c>
       <c r="H45" t="n">
-        <v>4600076.638477961</v>
+        <v>2798657.725622077</v>
       </c>
       <c r="I45" t="n">
-        <v>4712228.813672174</v>
+        <v>2935024.668740292</v>
       </c>
       <c r="J45" t="n">
-        <v>3517879.385572853</v>
+        <v>2789486.216751177</v>
       </c>
       <c r="K45" t="n">
-        <v>4040565.125794367</v>
+        <v>2788335.452654492</v>
       </c>
       <c r="L45" t="n">
-        <v>4483011.259814166</v>
+        <v>2833059.528756591</v>
       </c>
       <c r="M45" t="n">
-        <v>4595163.435008379</v>
+        <v>2969426.471874806</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8661962.963622456</v>
+        <v>2255789.515189265</v>
       </c>
       <c r="C46" t="n">
-        <v>10443947.04745569</v>
+        <v>2204015.472475133</v>
       </c>
       <c r="D46" t="n">
-        <v>12488576.36332324</v>
+        <v>2180505.466026479</v>
       </c>
       <c r="E46" t="n">
-        <v>12872458.24608815</v>
+        <v>2440243.867280913</v>
       </c>
       <c r="F46" t="n">
-        <v>8956740.120575799</v>
+        <v>2288620.079255591</v>
       </c>
       <c r="G46" t="n">
-        <v>10738724.20440903</v>
+        <v>2236846.036541459</v>
       </c>
       <c r="H46" t="n">
-        <v>12783353.52027658</v>
+        <v>2213336.030092805</v>
       </c>
       <c r="I46" t="n">
-        <v>13167235.40304149</v>
+        <v>2473074.431347239</v>
       </c>
       <c r="J46" t="n">
-        <v>9251517.277529141</v>
+        <v>2321450.643321917</v>
       </c>
       <c r="K46" t="n">
-        <v>11033501.36136238</v>
+        <v>2269676.600607785</v>
       </c>
       <c r="L46" t="n">
-        <v>13078130.67722992</v>
+        <v>2246166.594159131</v>
       </c>
       <c r="M46" t="n">
-        <v>13462012.55999483</v>
+        <v>2505904.995413566</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2350187.747234805</v>
+        <v>1872318.434223476</v>
       </c>
       <c r="C47" t="n">
-        <v>2409388.852337712</v>
+        <v>1882742.824532644</v>
       </c>
       <c r="D47" t="n">
-        <v>2513877.879652499</v>
+        <v>1893192.3358354</v>
       </c>
       <c r="E47" t="n">
-        <v>2441846.714002526</v>
+        <v>1903544.560216501</v>
       </c>
       <c r="F47" t="n">
-        <v>2560544.004149988</v>
+        <v>1913898.033176264</v>
       </c>
       <c r="G47" t="n">
-        <v>2619745.109252896</v>
+        <v>1924322.423485432</v>
       </c>
       <c r="H47" t="n">
-        <v>2724234.136567683</v>
+        <v>1934771.934788188</v>
       </c>
       <c r="I47" t="n">
-        <v>2652202.97091771</v>
+        <v>1945124.159169289</v>
       </c>
       <c r="J47" t="n">
-        <v>2770900.261065172</v>
+        <v>1955477.632129052</v>
       </c>
       <c r="K47" t="n">
-        <v>2830101.366168079</v>
+        <v>1965902.02243822</v>
       </c>
       <c r="L47" t="n">
-        <v>2934590.393482867</v>
+        <v>1976351.533740976</v>
       </c>
       <c r="M47" t="n">
-        <v>2862559.227832893</v>
+        <v>1986703.758122077</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>252408.0536191586</v>
+        <v>5309173.474368</v>
       </c>
       <c r="C48" t="n">
-        <v>144621.8806514972</v>
+        <v>5230967.189398038</v>
       </c>
       <c r="D48" t="n">
-        <v>91291.56571545417</v>
+        <v>5352591.88188816</v>
       </c>
       <c r="E48" t="n">
-        <v>61101.88375037268</v>
+        <v>5248343.792809466</v>
       </c>
       <c r="F48" t="n">
-        <v>-63114.33762799921</v>
+        <v>5643908.382227575</v>
       </c>
       <c r="G48" t="n">
-        <v>-170900.5105956606</v>
+        <v>5565702.097257613</v>
       </c>
       <c r="H48" t="n">
-        <v>-224230.8255317037</v>
+        <v>5687326.789747735</v>
       </c>
       <c r="I48" t="n">
-        <v>-254420.5074967851</v>
+        <v>5583078.700669041</v>
       </c>
       <c r="J48" t="n">
-        <v>-378636.728875157</v>
+        <v>5978643.29008715</v>
       </c>
       <c r="K48" t="n">
-        <v>-486422.9018428185</v>
+        <v>5900437.005117188</v>
       </c>
       <c r="L48" t="n">
-        <v>-539753.2167788616</v>
+        <v>6022061.69760731</v>
       </c>
       <c r="M48" t="n">
-        <v>-569942.8987439431</v>
+        <v>5917813.608528616</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>787667.5417922019</v>
+        <v>774813.6293847564</v>
       </c>
       <c r="C49" t="n">
-        <v>771640.4900311943</v>
+        <v>889436.9517137817</v>
       </c>
       <c r="D49" t="n">
-        <v>826365.163872097</v>
+        <v>913790.5024384141</v>
       </c>
       <c r="E49" t="n">
-        <v>913249.8305344206</v>
+        <v>835234.742348986</v>
       </c>
       <c r="F49" t="n">
-        <v>823449.1147262027</v>
+        <v>811540.4812162867</v>
       </c>
       <c r="G49" t="n">
-        <v>807422.062965195</v>
+        <v>926163.8035453119</v>
       </c>
       <c r="H49" t="n">
-        <v>862146.7368060978</v>
+        <v>950517.3542699444</v>
       </c>
       <c r="I49" t="n">
-        <v>949031.4034684213</v>
+        <v>871961.5941805162</v>
       </c>
       <c r="J49" t="n">
-        <v>859230.6876602034</v>
+        <v>848267.3330478169</v>
       </c>
       <c r="K49" t="n">
-        <v>843203.6358991958</v>
+        <v>962890.6553768421</v>
       </c>
       <c r="L49" t="n">
-        <v>897928.3097400985</v>
+        <v>987244.2061014746</v>
       </c>
       <c r="M49" t="n">
-        <v>984812.9764024221</v>
+        <v>908688.4460120464</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1845695.639987604</v>
+        <v>2901646.513744601</v>
       </c>
       <c r="C50" t="n">
-        <v>1910346.009309433</v>
+        <v>2730143.278617527</v>
       </c>
       <c r="D50" t="n">
-        <v>2012422.611144465</v>
+        <v>2970714.466362246</v>
       </c>
       <c r="E50" t="n">
-        <v>2014158.87373762</v>
+        <v>2768738.277621942</v>
       </c>
       <c r="F50" t="n">
-        <v>2012773.401330096</v>
+        <v>3101523.572356871</v>
       </c>
       <c r="G50" t="n">
-        <v>2077423.770651925</v>
+        <v>2930020.337229797</v>
       </c>
       <c r="H50" t="n">
-        <v>2179500.372486957</v>
+        <v>3170591.524974516</v>
       </c>
       <c r="I50" t="n">
-        <v>2181236.635080112</v>
+        <v>2968615.336234212</v>
       </c>
       <c r="J50" t="n">
-        <v>2179851.162672588</v>
+        <v>3301400.630969141</v>
       </c>
       <c r="K50" t="n">
-        <v>2244501.531994416</v>
+        <v>3129897.395842067</v>
       </c>
       <c r="L50" t="n">
-        <v>2346578.133829449</v>
+        <v>3370468.583586786</v>
       </c>
       <c r="M50" t="n">
-        <v>2348314.396422604</v>
+        <v>3168492.394846483</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2877429.244570912</v>
+        <v>3099952.084377918</v>
       </c>
       <c r="C51" t="n">
-        <v>3102722.462160029</v>
+        <v>3082511.792477957</v>
       </c>
       <c r="D51" t="n">
-        <v>3070056.234604299</v>
+        <v>3240066.464570694</v>
       </c>
       <c r="E51" t="n">
-        <v>3068816.064964914</v>
+        <v>3250347.198094505</v>
       </c>
       <c r="F51" t="n">
-        <v>3056556.468880437</v>
+        <v>3285574.710228532</v>
       </c>
       <c r="G51" t="n">
-        <v>3281849.686469554</v>
+        <v>3268134.418328571</v>
       </c>
       <c r="H51" t="n">
-        <v>3249183.458913824</v>
+        <v>3425689.090421308</v>
       </c>
       <c r="I51" t="n">
-        <v>3247943.289274438</v>
+        <v>3435969.82394512</v>
       </c>
       <c r="J51" t="n">
-        <v>3235683.693189961</v>
+        <v>3471197.336079146</v>
       </c>
       <c r="K51" t="n">
-        <v>3460976.910779078</v>
+        <v>3453757.044179185</v>
       </c>
       <c r="L51" t="n">
-        <v>3428310.683223348</v>
+        <v>3611311.716271922</v>
       </c>
       <c r="M51" t="n">
-        <v>3427070.513583963</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>4090152.893276042</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3584571.573208251</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3468812.070797452</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3457736.69976828</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4312319.702918655</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3806738.382850864</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3690978.880440065</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3679903.509410893</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4534486.512561268</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4028905.192493477</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3913145.690082678</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3902070.319053506</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1660522.318179509</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1669904.311282047</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1682070.395834601</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1692620.132943999</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1703319.890530681</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1712701.883633218</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1724867.968185773</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1735417.70529517</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1746117.462881852</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1755499.45598439</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1767665.540536945</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1778215.277646342</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>715450.7680532365</v>
-      </c>
-      <c r="C54" t="n">
-        <v>950686.3257078181</v>
-      </c>
-      <c r="D54" t="n">
-        <v>837079.0501493765</v>
-      </c>
-      <c r="E54" t="n">
-        <v>755644.4061302715</v>
-      </c>
-      <c r="F54" t="n">
-        <v>786649.4085383519</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1021884.966192933</v>
-      </c>
-      <c r="H54" t="n">
-        <v>908277.6906344919</v>
-      </c>
-      <c r="I54" t="n">
-        <v>826843.0466153868</v>
-      </c>
-      <c r="J54" t="n">
-        <v>857848.0490234672</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1093083.606678049</v>
-      </c>
-      <c r="L54" t="n">
-        <v>979476.3311196072</v>
-      </c>
-      <c r="M54" t="n">
-        <v>898041.6871005022</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3207457.859414686</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3679067.25300573</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4374042.0588686</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3642968.117728553</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3074760.758994246</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3546370.15258529</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4241344.95844816</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3510271.017308113</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2942063.658573807</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3413673.052164851</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4108647.85802772</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3377573.916887674</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4711335.997456583</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4874775.339358537</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4828639.447218279</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4986017.024693408</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5016190.353768284</v>
-      </c>
-      <c r="G56" t="n">
-        <v>5179629.695670239</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5133493.803529981</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5290871.381005109</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5321044.710079986</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5484484.05198194</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5438348.159841682</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5595725.737316811</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4711113.845526204</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5267718.302933417</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5093461.418038758</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5026495.943174685</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5006351.928997096</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5562956.386404309</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5388699.501509651</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5321734.026645578</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5301590.012467988</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5858194.469875202</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5683937.584980543</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5616972.11011647</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4807116.820521061</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5116965.557508321</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5000191.108520636</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5353321.389524383</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4983881.078698047</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5293729.815685308</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5176955.366697622</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5530085.64770137</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5160645.336875034</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5470494.073862294</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5353719.624874609</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5706849.905878356</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3279743.172001643</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3439355.108890737</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3423677.276840077</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3696546.585971694</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3548038.248421719</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3707650.185310813</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3691972.353260153</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3964841.66239177</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3816333.324841795</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3975945.261730889</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3960267.42968023</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4233136.738811847</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3952216.041388314</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4164058.94795905</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4383905.635798724</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4346704.91789025</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4103032.753308773</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4314875.659879508</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4534722.347719183</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4497521.629810709</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4253849.465229232</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4465692.371799967</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4685539.059639642</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4648338.341731167</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2946269.673338374</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2901282.241582888</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3226719.446694702</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3097238.783363612</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2985240.145187901</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2940252.713432415</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3265689.91854423</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3136209.255213139</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3024210.617037429</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2979223.185281942</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3304660.390393757</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3175179.727062666</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5936229.758311854</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6516539.717080502</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6404382.892745026</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6420333.568076397</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6213143.330413834</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6793453.289182482</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6681296.464847007</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6697247.140178378</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6490056.902515815</v>
-      </c>
-      <c r="K62" t="n">
-        <v>7070366.861284463</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6958210.036948987</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6974160.712280358</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3113100.946428265</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2978182.941050537</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3102898.564493063</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3042976.084962529</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3189910.249429963</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3054992.244052235</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3179707.867494761</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3119785.387964227</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3266719.552431661</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3131801.547053933</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3256517.17049646</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3196594.690965925</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2398021.107387731</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2252024.174643917</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2228538.02218973</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2188043.499776672</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2453456.486662209</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2307459.553918395</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2283973.401464208</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2243478.87905115</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2508891.865936688</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2362894.933192873</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2339408.780738686</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2298914.258325628</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2349850.426702714</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2389401.394229656</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2429071.154387143</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2468765.532380166</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2508410.455599543</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2547961.423126485</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2587631.183283973</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2627325.561276995</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2666970.484496372</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2706521.452023314</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2746191.212180802</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2785885.590173824</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5239043.450128355</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5646491.099117291</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5696392.710696578</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5713873.193187858</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5621704.983975795</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6029152.632964731</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6079054.244544018</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6096534.727035298</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6004366.517823235</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6411814.166812171</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6461715.778391458</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6479196.260882738</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>879156.6267408892</v>
-      </c>
-      <c r="C67" t="n">
-        <v>861242.717061299</v>
-      </c>
-      <c r="D67" t="n">
-        <v>969312.0041592172</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1011823.909728613</v>
-      </c>
-      <c r="F67" t="n">
-        <v>939094.9952648296</v>
-      </c>
-      <c r="G67" t="n">
-        <v>921181.0855852395</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1029250.372683158</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1071762.278252553</v>
-      </c>
-      <c r="J67" t="n">
-        <v>999033.36378877</v>
-      </c>
-      <c r="K67" t="n">
-        <v>981119.4541091799</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1089188.741207098</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1131700.646776494</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2859965.757246078</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3119507.17329576</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2990517.175696938</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3213980.725664347</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3114190.383661018</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3373731.799710699</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3244741.802111878</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3468205.352079287</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3368415.010075958</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3627956.426125639</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3498966.428526818</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3722429.978494227</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2776404.372554017</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2800044.085288597</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2784666.35309897</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2916937.158932313</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2915552.676984135</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2939192.389718715</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2923814.657529088</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3056085.463362431</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3054700.981414252</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3078340.694148833</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3062962.961959206</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3195233.767792549</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>44979075.3889622</v>
-      </c>
-      <c r="C70" t="n">
-        <v>52147934.52895895</v>
-      </c>
-      <c r="D70" t="n">
-        <v>51570113.21703243</v>
-      </c>
-      <c r="E70" t="n">
-        <v>63928584.64476073</v>
-      </c>
-      <c r="F70" t="n">
-        <v>65087826.86196398</v>
-      </c>
-      <c r="G70" t="n">
-        <v>72256686.00196072</v>
-      </c>
-      <c r="H70" t="n">
-        <v>71678864.69003421</v>
-      </c>
-      <c r="I70" t="n">
-        <v>84037336.11776251</v>
-      </c>
-      <c r="J70" t="n">
-        <v>85196578.33496577</v>
-      </c>
-      <c r="K70" t="n">
-        <v>92365437.4749625</v>
-      </c>
-      <c r="L70" t="n">
-        <v>91787616.16303599</v>
-      </c>
-      <c r="M70" t="n">
-        <v>104146087.5907643</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>28471786.13666158</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32807184.17196315</v>
-      </c>
-      <c r="D71" t="n">
-        <v>35735526.07440826</v>
-      </c>
-      <c r="E71" t="n">
-        <v>40646501.95271949</v>
-      </c>
-      <c r="F71" t="n">
-        <v>36651386.03505578</v>
-      </c>
-      <c r="G71" t="n">
-        <v>40986784.07035735</v>
-      </c>
-      <c r="H71" t="n">
-        <v>43915125.97280245</v>
-      </c>
-      <c r="I71" t="n">
-        <v>48826101.85111369</v>
-      </c>
-      <c r="J71" t="n">
-        <v>44830985.93344998</v>
-      </c>
-      <c r="K71" t="n">
-        <v>49166383.96875155</v>
-      </c>
-      <c r="L71" t="n">
-        <v>52094725.87119665</v>
-      </c>
-      <c r="M71" t="n">
-        <v>57005701.74950789</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1430334.694947872</v>
-      </c>
-      <c r="C72" t="n">
-        <v>675353.262673439</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1385304.39849764</v>
-      </c>
-      <c r="E72" t="n">
-        <v>706277.9295483814</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1342373.01038057</v>
-      </c>
-      <c r="G72" t="n">
-        <v>587391.5781061368</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1297342.713930338</v>
-      </c>
-      <c r="I72" t="n">
-        <v>618316.2449810794</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1254411.325813268</v>
-      </c>
-      <c r="K72" t="n">
-        <v>499429.8935388348</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1209381.029363036</v>
-      </c>
-      <c r="M72" t="n">
-        <v>530354.5604137774</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11357934.2833445</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12146947.77238744</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12776687.40276471</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12872276.21480761</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12654646.3156851</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13443659.80472804</v>
-      </c>
-      <c r="H73" t="n">
-        <v>14073399.43510531</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14168988.24714821</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13951358.3480257</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14740371.83706864</v>
-      </c>
-      <c r="L73" t="n">
-        <v>15370111.46744591</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15465700.27948881</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19133904.74005447</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20350931.65908701</v>
-      </c>
-      <c r="D74" t="n">
-        <v>22339781.29848173</v>
-      </c>
-      <c r="E74" t="n">
-        <v>22769581.45076905</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20065011.50080164</v>
-      </c>
-      <c r="G74" t="n">
-        <v>21282038.41983417</v>
-      </c>
-      <c r="H74" t="n">
-        <v>23270888.05922889</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23700688.21151621</v>
-      </c>
-      <c r="J74" t="n">
-        <v>20996118.2615488</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22213145.18058133</v>
-      </c>
-      <c r="L74" t="n">
-        <v>24201994.81997605</v>
-      </c>
-      <c r="M74" t="n">
-        <v>24631794.97226338</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>29616312.51514638</v>
-      </c>
-      <c r="C75" t="n">
-        <v>32413254.45582723</v>
-      </c>
-      <c r="D75" t="n">
-        <v>30906595.79281558</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34450004.75880141</v>
-      </c>
-      <c r="F75" t="n">
-        <v>32747812.01336633</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35544753.9540472</v>
-      </c>
-      <c r="H75" t="n">
-        <v>34038095.29103555</v>
-      </c>
-      <c r="I75" t="n">
-        <v>37581504.25702138</v>
-      </c>
-      <c r="J75" t="n">
-        <v>35879311.5115863</v>
-      </c>
-      <c r="K75" t="n">
-        <v>38676253.45226716</v>
-      </c>
-      <c r="L75" t="n">
-        <v>37169594.78925551</v>
-      </c>
-      <c r="M75" t="n">
-        <v>40713003.75524134</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>20781493.70158208</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21367644.76211465</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21954556.46694511</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22538715.40862628</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23123354.23717738</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23709505.29770995</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24296417.00254041</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24880575.94422158</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25465214.77277268</v>
-      </c>
-      <c r="K76" t="n">
-        <v>26051365.83330525</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26638277.5381357</v>
-      </c>
-      <c r="M76" t="n">
-        <v>27222436.47981688</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>23121608.53493007</v>
-      </c>
-      <c r="C77" t="n">
-        <v>25488565.79261041</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25499499.47512489</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26549547.00163608</v>
-      </c>
-      <c r="F77" t="n">
-        <v>27340875.9544918</v>
-      </c>
-      <c r="G77" t="n">
-        <v>29707833.21217214</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29718766.89468662</v>
-      </c>
-      <c r="I77" t="n">
-        <v>30768814.42119781</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31560143.37405353</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33927100.63173386</v>
-      </c>
-      <c r="L77" t="n">
-        <v>33938034.31424835</v>
-      </c>
-      <c r="M77" t="n">
-        <v>34988081.84075955</v>
+        <v>3621592.449795734</v>
       </c>
     </row>
   </sheetData>
